--- a/data/TEx Cartography081116.xlsx
+++ b/data/TEx Cartography081116.xlsx
@@ -5274,6 +5274,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3609975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5543,10 +5591,10 @@
   <dimension ref="A1:Y177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U70" sqref="U70"/>
+      <selection pane="bottomRight" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>

--- a/data/TEx Cartography081116.xlsx
+++ b/data/TEx Cartography081116.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="720">
   <si>
     <t>Timestamp</t>
   </si>
@@ -5322,6 +5322,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3609975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5591,10 +5639,10 @@
   <dimension ref="A1:Y177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D154" sqref="D154"/>
+      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -10979,7 +11027,9 @@
       <c r="J154" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K154" s="17"/>
+      <c r="K154" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L154" s="32" t="s">
         <v>71</v>
       </c>
@@ -11037,7 +11087,9 @@
       <c r="J156" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K156" s="17"/>
+      <c r="K156" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L156" s="32" t="s">
         <v>625</v>
       </c>
@@ -11082,7 +11134,9 @@
       <c r="J157" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K157" s="17"/>
+      <c r="K157" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L157" s="32" t="s">
         <v>631</v>
       </c>
@@ -11177,7 +11231,9 @@
       <c r="J160" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K160" s="17"/>
+      <c r="K160" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L160" s="32" t="s">
         <v>643</v>
       </c>
@@ -11229,7 +11285,9 @@
       <c r="J161" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K161" s="17"/>
+      <c r="K161" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L161" s="32" t="s">
         <v>651</v>
       </c>
@@ -11278,7 +11336,9 @@
       <c r="J162" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K162" s="17"/>
+      <c r="K162" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L162" s="32" t="s">
         <v>656</v>
       </c>
@@ -11330,7 +11390,9 @@
       <c r="J163" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K163" s="17"/>
+      <c r="K163" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L163" s="32" t="s">
         <v>663</v>
       </c>
@@ -11400,7 +11462,9 @@
       <c r="J165" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K165" s="17"/>
+      <c r="K165" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L165" s="32" t="s">
         <v>651</v>
       </c>
@@ -11432,7 +11496,9 @@
       <c r="J166" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K166" s="17"/>
+      <c r="K166" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L166" s="32" t="s">
         <v>656</v>
       </c>
@@ -11496,7 +11562,9 @@
       <c r="J168" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K168" s="17"/>
+      <c r="K168" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L168" s="32" t="s">
         <v>663</v>
       </c>
@@ -11568,7 +11636,9 @@
       <c r="J170" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K170" s="17"/>
+      <c r="K170" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L170" s="32" t="s">
         <v>683</v>
       </c>
@@ -11637,7 +11707,9 @@
       <c r="J172" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K172" s="17"/>
+      <c r="K172" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="L172" s="32" t="s">
         <v>683</v>
       </c>
@@ -11697,7 +11769,9 @@
       <c r="J174" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K174" s="17"/>
+      <c r="K174" s="17" t="s">
+        <v>706</v>
+      </c>
       <c r="L174" s="1" t="s">
         <v>34</v>
       </c>
@@ -11728,7 +11802,9 @@
       <c r="J175" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="K175" s="17"/>
+      <c r="K175" s="17" t="s">
+        <v>716</v>
+      </c>
       <c r="L175" s="1" t="s">
         <v>700</v>
       </c>

--- a/data/TEx Cartography081116.xlsx
+++ b/data/TEx Cartography081116.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atg\Documents\GitHub\TateViz\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyg\Documents\GitHub\TateViz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5370,6 +5370,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3444240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5639,20 +5687,20 @@
   <dimension ref="A1:Y177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
+      <selection pane="bottomRight" activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="61.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="61.5546875" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="25" width="17.28515625" customWidth="1"/>
+    <col min="9" max="25" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1">
@@ -5732,7 +5780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="278.25">
+    <row r="2" spans="1:25" ht="271.8">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -5788,7 +5836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="13.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5818,7 +5866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="140.25">
+    <row r="4" spans="1:25" ht="145.19999999999999">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -5869,7 +5917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="140.25">
+    <row r="5" spans="1:25" ht="145.19999999999999">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -5919,7 +5967,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="108">
+    <row r="6" spans="1:25" ht="91.8">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>66</v>
@@ -5962,7 +6010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" ht="13.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -5985,7 +6033,7 @@
       <c r="L7" s="17"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" ht="13.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -6011,7 +6059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="25.5">
+    <row r="9" spans="1:25" ht="26.4">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -6037,7 +6085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="25.5">
+    <row r="10" spans="1:25" ht="26.4">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -6062,7 +6110,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="25.5">
+    <row r="11" spans="1:25" ht="26.4">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6087,7 +6135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" ht="13.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -6109,7 +6157,7 @@
       <c r="L12" s="17"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" ht="13.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -6131,7 +6179,7 @@
       <c r="L13" s="17"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" ht="13.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6154,7 +6202,7 @@
       <c r="L14" s="17"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" ht="13.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6180,7 +6228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="267.75">
+    <row r="16" spans="1:25" ht="264">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -6224,7 +6272,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" ht="13.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -6246,7 +6294,7 @@
       <c r="L17" s="17"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:25" ht="156">
+    <row r="18" spans="1:25" ht="126">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -6301,7 +6349,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="25.5">
+    <row r="19" spans="1:25" ht="26.4">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -6329,7 +6377,7 @@
       </c>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:25" ht="25.5">
+    <row r="20" spans="1:25" ht="26.4">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -6357,7 +6405,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="240.75">
+    <row r="21" spans="1:25" ht="234">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -6416,7 +6464,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" ht="13.2">
       <c r="B22" s="1" t="s">
         <v>122</v>
       </c>
@@ -6427,7 +6475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" ht="13.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>124</v>
@@ -6454,7 +6502,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" ht="13.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>125</v>
@@ -6481,7 +6529,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="168">
+    <row r="25" spans="1:25" ht="148.80000000000001">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -6505,7 +6553,7 @@
       <c r="L25" s="17"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:25" ht="84">
+    <row r="26" spans="1:25" ht="80.400000000000006">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>128</v>
@@ -6554,7 +6602,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="25.5">
+    <row r="27" spans="1:25" ht="26.4">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -6586,7 +6634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="25.5">
+    <row r="28" spans="1:25" ht="26.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>135</v>
@@ -6608,7 +6656,7 @@
       <c r="R28" s="11"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" ht="13.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>136</v>
@@ -6630,7 +6678,7 @@
       <c r="R29" s="11"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="51">
+    <row r="30" spans="1:25" ht="52.8">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -6658,7 +6706,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="168">
+    <row r="31" spans="1:25" ht="148.80000000000001">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -6707,7 +6755,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="25.5">
+    <row r="32" spans="1:25" ht="26.4">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -6730,7 +6778,7 @@
       <c r="L32" s="17"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" spans="1:25" ht="204">
+    <row r="33" spans="1:25" ht="198">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>150</v>
@@ -6778,7 +6826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="25.5">
+    <row r="34" spans="1:25" ht="26.4">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -6814,7 +6862,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="25.5">
+    <row r="35" spans="1:25" ht="26.4">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -6837,7 +6885,7 @@
       <c r="L35" s="17"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" ht="13.2">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -6860,7 +6908,7 @@
       <c r="L36" s="17"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" spans="1:25" ht="267.75">
+    <row r="37" spans="1:25" ht="264">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -6911,7 +6959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" ht="13.2">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -6933,7 +6981,7 @@
       <c r="L38" s="17"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" spans="1:25" ht="192">
+    <row r="39" spans="1:25" ht="160.19999999999999">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -6983,7 +7031,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" ht="13.2">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -7009,7 +7057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="51">
+    <row r="41" spans="1:25" ht="39.6">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -7038,7 +7086,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" ht="13.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>183</v>
@@ -7058,7 +7106,7 @@
       <c r="L42" s="17"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" ht="13.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>185</v>
@@ -7074,7 +7122,7 @@
       <c r="L43" s="17"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" ht="13.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>186</v>
@@ -7094,7 +7142,7 @@
       <c r="L44" s="17"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" ht="13.2">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -7116,7 +7164,7 @@
       <c r="L45" s="17"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" ht="13.2">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
@@ -7138,7 +7186,7 @@
       <c r="L46" s="17"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" ht="13.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -7160,7 +7208,7 @@
       <c r="L47" s="17"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" ht="13.2">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -7182,7 +7230,7 @@
       <c r="L48" s="17"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" ht="13.2">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -7205,7 +7253,7 @@
       <c r="L49" s="17"/>
       <c r="R49" s="11"/>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" ht="13.2">
       <c r="A50" s="1" t="s">
         <v>26</v>
       </c>
@@ -7228,7 +7276,7 @@
       <c r="L50" s="17"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" ht="13.2">
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
@@ -7250,7 +7298,7 @@
       <c r="L51" s="17"/>
       <c r="R51" s="11"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" ht="13.2">
       <c r="A52" s="1" t="s">
         <v>26</v>
       </c>
@@ -7273,7 +7321,7 @@
       <c r="L52" s="17"/>
       <c r="R52" s="11"/>
     </row>
-    <row r="53" spans="1:25" ht="63.75">
+    <row r="53" spans="1:25" ht="66">
       <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>196</v>
@@ -7299,7 +7347,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" ht="13.2">
       <c r="A54" s="1"/>
       <c r="B54" s="32" t="s">
         <v>200</v>
@@ -7319,7 +7367,7 @@
       <c r="L54" s="17"/>
       <c r="R54" s="11"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" ht="13.2">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -7341,7 +7389,7 @@
       <c r="L55" s="17"/>
       <c r="R55" s="11"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" ht="13.2">
       <c r="A56" s="1" t="s">
         <v>26</v>
       </c>
@@ -7363,7 +7411,7 @@
       <c r="L56" s="17"/>
       <c r="R56" s="11"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" ht="13.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
@@ -7386,7 +7434,7 @@
       <c r="L57" s="17"/>
       <c r="R57" s="11"/>
     </row>
-    <row r="58" spans="1:25" ht="25.5">
+    <row r="58" spans="1:25" ht="26.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>201</v>
@@ -7412,7 +7460,7 @@
       </c>
       <c r="R58" s="11"/>
     </row>
-    <row r="59" spans="1:25" ht="25.5">
+    <row r="59" spans="1:25" ht="26.4">
       <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
@@ -7440,7 +7488,7 @@
       </c>
       <c r="R59" s="11"/>
     </row>
-    <row r="60" spans="1:25" ht="25.5">
+    <row r="60" spans="1:25" ht="26.4">
       <c r="A60" s="1" t="s">
         <v>26</v>
       </c>
@@ -7471,7 +7519,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" ht="13.2">
       <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
@@ -7493,7 +7541,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" ht="13.2">
       <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
@@ -7509,7 +7557,7 @@
       <c r="G62" s="33"/>
       <c r="R62" s="11"/>
     </row>
-    <row r="63" spans="1:25" ht="264">
+    <row r="63" spans="1:25" ht="228.6">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -7556,7 +7604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="409.5">
+    <row r="64" spans="1:25" ht="409.6">
       <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
@@ -7607,7 +7655,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="168">
+    <row r="65" spans="1:25" ht="148.80000000000001">
       <c r="A65" s="35" t="s">
         <v>55</v>
       </c>
@@ -7672,7 +7720,7 @@
       <c r="X65" s="40"/>
       <c r="Y65" s="35"/>
     </row>
-    <row r="66" spans="1:25" ht="180">
+    <row r="66" spans="1:25" ht="160.19999999999999">
       <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
@@ -7727,7 +7775,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="38.25">
+    <row r="67" spans="1:25" ht="39.6">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -7759,7 +7807,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="60">
+    <row r="68" spans="1:25" ht="57.6">
       <c r="A68" s="1" t="s">
         <v>55</v>
       </c>
@@ -7791,7 +7839,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="60">
+    <row r="69" spans="1:25" ht="57.6">
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
@@ -7824,7 +7872,7 @@
       </c>
       <c r="V69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="120">
+    <row r="70" spans="1:25" ht="103.2">
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
@@ -7883,7 +7931,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="25.5">
+    <row r="71" spans="1:25" ht="26.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>263</v>
@@ -7912,7 +7960,7 @@
       <c r="V71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="127.5">
+    <row r="72" spans="1:25" ht="132">
       <c r="A72" s="1" t="s">
         <v>55</v>
       </c>
@@ -7962,7 +8010,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="178.5">
+    <row r="73" spans="1:25" ht="184.8">
       <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
@@ -8013,7 +8061,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="168">
+    <row r="74" spans="1:25" ht="137.4">
       <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
@@ -8058,7 +8106,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" ht="13.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>289</v>
@@ -8082,7 +8130,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="84">
+    <row r="76" spans="1:25" ht="69">
       <c r="A76" s="1" t="s">
         <v>55</v>
       </c>
@@ -8126,7 +8174,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="60">
+    <row r="77" spans="1:25" ht="57.6">
       <c r="A77" s="1" t="s">
         <v>55</v>
       </c>
@@ -8179,7 +8227,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="102">
+    <row r="78" spans="1:25" ht="105.6">
       <c r="A78" s="1" t="s">
         <v>55</v>
       </c>
@@ -8231,7 +8279,7 @@
       </c>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" ht="13.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>312</v>
@@ -8257,7 +8305,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="84">
+    <row r="80" spans="1:25" ht="69">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
@@ -8299,7 +8347,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" ht="13.2">
       <c r="A81" s="1"/>
       <c r="B81" s="42" t="s">
         <v>316</v>
@@ -8324,7 +8372,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="15"/>
     </row>
-    <row r="82" spans="1:25" ht="126">
+    <row r="82" spans="1:25" ht="117">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
@@ -8376,7 +8424,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="38.25">
+    <row r="83" spans="1:25" ht="39.6">
       <c r="A83" s="1"/>
       <c r="B83" s="42" t="s">
         <v>325</v>
@@ -8408,7 +8456,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" ht="13.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>328</v>
@@ -8436,7 +8484,7 @@
       <c r="S84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" ht="13.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>330</v>
@@ -8464,7 +8512,7 @@
       <c r="S85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" ht="13.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>332</v>
@@ -8492,7 +8540,7 @@
       <c r="S86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="288.75">
+    <row r="87" spans="1:25" ht="281.39999999999998">
       <c r="A87" s="1" t="s">
         <v>26</v>
       </c>
@@ -8550,7 +8598,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="25.5">
+    <row r="88" spans="1:25" ht="26.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>343</v>
@@ -8580,7 +8628,7 @@
       <c r="R88" s="15"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="108">
+    <row r="89" spans="1:25" ht="91.8">
       <c r="A89" s="1" t="s">
         <v>26</v>
       </c>
@@ -8626,7 +8674,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="264">
+    <row r="90" spans="1:25" ht="228.6">
       <c r="A90" s="1" t="s">
         <v>26</v>
       </c>
@@ -8675,7 +8723,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="267.75">
+    <row r="91" spans="1:25" ht="277.2">
       <c r="A91" s="1" t="s">
         <v>26</v>
       </c>
@@ -8716,7 +8764,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="38.25">
+    <row r="92" spans="1:25" ht="39.6">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>365</v>
@@ -8758,7 +8806,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="264">
+    <row r="93" spans="1:25" ht="228.6">
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
@@ -8807,7 +8855,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="132">
+    <row r="94" spans="1:25" ht="114.6">
       <c r="A94" s="1" t="s">
         <v>55</v>
       </c>
@@ -8854,7 +8902,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="108">
+    <row r="95" spans="1:25" ht="91.8">
       <c r="A95" s="1" t="s">
         <v>55</v>
       </c>
@@ -8894,7 +8942,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="84">
+    <row r="96" spans="1:25" ht="80.400000000000006">
       <c r="A96" s="1" t="s">
         <v>55</v>
       </c>
@@ -8942,7 +8990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="108">
+    <row r="97" spans="1:25" ht="91.8">
       <c r="A97" s="1" t="s">
         <v>55</v>
       </c>
@@ -8998,7 +9046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="126">
+    <row r="98" spans="1:25" ht="130.19999999999999">
       <c r="A98" s="1" t="s">
         <v>55</v>
       </c>
@@ -9059,7 +9107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" ht="13.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>413</v>
@@ -9073,7 +9121,7 @@
       <c r="G99" s="20"/>
       <c r="R99" s="11"/>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" ht="13.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>414</v>
@@ -9087,7 +9135,7 @@
       <c r="G100" s="20"/>
       <c r="R100" s="11"/>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" ht="13.2">
       <c r="A101" s="1" t="s">
         <v>55</v>
       </c>
@@ -9103,7 +9151,7 @@
       <c r="G101" s="20"/>
       <c r="R101" s="11"/>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" ht="13.2">
       <c r="A102" s="1" t="s">
         <v>55</v>
       </c>
@@ -9119,7 +9167,7 @@
       <c r="G102" s="20"/>
       <c r="R102" s="11"/>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" ht="13.2">
       <c r="A103" s="1" t="s">
         <v>55</v>
       </c>
@@ -9135,7 +9183,7 @@
       <c r="G103" s="20"/>
       <c r="R103" s="11"/>
     </row>
-    <row r="104" spans="1:25" ht="108">
+    <row r="104" spans="1:25" ht="91.8">
       <c r="A104" s="1" t="s">
         <v>55</v>
       </c>
@@ -9189,7 +9237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="76.5">
+    <row r="105" spans="1:25" ht="66">
       <c r="A105" s="1" t="s">
         <v>55</v>
       </c>
@@ -9235,7 +9283,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" ht="13.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>431</v>
@@ -9260,7 +9308,7 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="15"/>
     </row>
-    <row r="107" spans="1:25" ht="139.5">
+    <row r="107" spans="1:25" ht="130.19999999999999">
       <c r="A107" s="1" t="s">
         <v>55</v>
       </c>
@@ -9317,7 +9365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" ht="13.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>441</v>
@@ -9331,7 +9379,7 @@
       <c r="G108" s="20"/>
       <c r="R108" s="11"/>
     </row>
-    <row r="109" spans="1:25" ht="168">
+    <row r="109" spans="1:25" ht="137.4">
       <c r="A109" s="1" t="s">
         <v>55</v>
       </c>
@@ -9382,7 +9430,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" ht="13.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>447</v>
@@ -9406,7 +9454,7 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="11"/>
     </row>
-    <row r="111" spans="1:25" ht="38.25">
+    <row r="111" spans="1:25" ht="39.6">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>449</v>
@@ -9438,7 +9486,7 @@
       <c r="S111" s="42"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="88.5">
+    <row r="112" spans="1:25" ht="90.6">
       <c r="A112" s="1" t="s">
         <v>55</v>
       </c>
@@ -9490,7 +9538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" ht="13.2">
       <c r="A113" s="1"/>
       <c r="B113" s="42" t="s">
         <v>457</v>
@@ -9513,7 +9561,7 @@
       <c r="R113" s="15"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="151.5">
+    <row r="114" spans="1:25" ht="141.6">
       <c r="A114" s="1" t="s">
         <v>55</v>
       </c>
@@ -9564,7 +9612,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" ht="13.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>465</v>
@@ -9592,7 +9640,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" ht="13.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>466</v>
@@ -9620,7 +9668,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="89.25">
+    <row r="117" spans="1:25" ht="92.4">
       <c r="A117" s="1" t="s">
         <v>55</v>
       </c>
@@ -9672,7 +9720,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" ht="13.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>475</v>
@@ -9700,7 +9748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="126.75">
+    <row r="119" spans="1:25" ht="130.19999999999999">
       <c r="A119" s="1" t="s">
         <v>55</v>
       </c>
@@ -9752,7 +9800,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" ht="13.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>482</v>
@@ -9774,7 +9822,7 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="15"/>
     </row>
-    <row r="121" spans="1:25" ht="72">
+    <row r="121" spans="1:25" ht="57.6">
       <c r="A121" s="1" t="s">
         <v>55</v>
       </c>
@@ -9825,7 +9873,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" ht="13.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>492</v>
@@ -9849,7 +9897,7 @@
       <c r="R122" s="11"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="120">
+    <row r="123" spans="1:25" ht="103.2">
       <c r="A123" s="1" t="s">
         <v>55</v>
       </c>
@@ -9897,7 +9945,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" ht="13.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>501</v>
@@ -9922,7 +9970,7 @@
       <c r="R124" s="11"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="84">
+    <row r="125" spans="1:25" ht="80.400000000000006">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
@@ -9973,7 +10021,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="96">
+    <row r="126" spans="1:25" ht="80.400000000000006">
       <c r="A126" s="1" t="s">
         <v>510</v>
       </c>
@@ -10019,7 +10067,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" ht="13.2">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -10035,7 +10083,7 @@
       <c r="G127" s="20"/>
       <c r="R127" s="11"/>
     </row>
-    <row r="128" spans="1:25" ht="102">
+    <row r="128" spans="1:25" ht="105.6">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
@@ -10095,7 +10143,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="114.75">
+    <row r="129" spans="1:25" ht="118.8">
       <c r="A129" s="1" t="s">
         <v>55</v>
       </c>
@@ -10153,7 +10201,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="25.5">
+    <row r="130" spans="1:25" ht="26.4">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>534</v>
@@ -10185,7 +10233,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="25.5">
+    <row r="131" spans="1:25" ht="26.4">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>535</v>
@@ -10217,7 +10265,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" ht="13.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>523</v>
@@ -10244,7 +10292,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="140.25">
+    <row r="133" spans="1:25" ht="145.19999999999999">
       <c r="A133" s="1" t="s">
         <v>55</v>
       </c>
@@ -10305,7 +10353,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" ht="13.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>543</v>
@@ -10325,7 +10373,7 @@
       <c r="L134" s="1"/>
       <c r="R134" s="11"/>
     </row>
-    <row r="135" spans="1:25" ht="72">
+    <row r="135" spans="1:25" ht="57.6">
       <c r="A135" s="1" t="s">
         <v>55</v>
       </c>
@@ -10364,7 +10412,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" ht="13.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>552</v>
@@ -10391,7 +10439,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" ht="13.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>553</v>
@@ -10418,7 +10466,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="38.25">
+    <row r="138" spans="1:25" ht="39.6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>549</v>
@@ -10445,7 +10493,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="140.25">
+    <row r="139" spans="1:25" ht="145.19999999999999">
       <c r="A139" s="1" t="s">
         <v>55</v>
       </c>
@@ -10500,7 +10548,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="25.5">
+    <row r="140" spans="1:25" ht="26.4">
       <c r="A140" s="1"/>
       <c r="B140" s="42" t="s">
         <v>560</v>
@@ -10525,7 +10573,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="127.5">
+    <row r="141" spans="1:25" ht="132">
       <c r="A141" s="1" t="s">
         <v>55</v>
       </c>
@@ -10579,7 +10627,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" ht="13.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>567</v>
@@ -10606,7 +10654,7 @@
       <c r="W142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="132">
+    <row r="143" spans="1:25" ht="114.6">
       <c r="A143" s="1" t="s">
         <v>55</v>
       </c>
@@ -10661,7 +10709,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" ht="13.2">
       <c r="A144" s="1"/>
       <c r="B144" s="42" t="s">
         <v>577</v>
@@ -10689,7 +10737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" ht="13.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>580</v>
@@ -10714,7 +10762,7 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="15"/>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" ht="13.2">
       <c r="A146" s="1" t="s">
         <v>26</v>
       </c>
@@ -10748,7 +10796,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="72">
+    <row r="147" spans="1:25" ht="69">
       <c r="A147" s="1" t="s">
         <v>55</v>
       </c>
@@ -10799,7 +10847,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="139.5">
+    <row r="148" spans="1:25" ht="130.19999999999999">
       <c r="A148" s="1" t="s">
         <v>55</v>
       </c>
@@ -10848,7 +10896,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" ht="13.2">
       <c r="A149" s="1"/>
       <c r="B149" s="42" t="s">
         <v>589</v>
@@ -10867,7 +10915,7 @@
       <c r="L149" s="1"/>
       <c r="R149" s="11"/>
     </row>
-    <row r="150" spans="1:25" ht="102">
+    <row r="150" spans="1:25" ht="105.6">
       <c r="A150" s="1" t="s">
         <v>55</v>
       </c>
@@ -10904,7 +10952,7 @@
       </c>
       <c r="R150" s="11"/>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" ht="13.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>602</v>
@@ -10929,7 +10977,7 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="15"/>
     </row>
-    <row r="152" spans="1:25" ht="89.25">
+    <row r="152" spans="1:25" ht="92.4">
       <c r="A152" s="1" t="s">
         <v>55</v>
       </c>
@@ -10983,7 +11031,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" ht="13.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>612</v>
@@ -11002,7 +11050,7 @@
       <c r="L153" s="32"/>
       <c r="R153" s="11"/>
     </row>
-    <row r="154" spans="1:25" ht="120">
+    <row r="154" spans="1:25" ht="103.2">
       <c r="A154" s="1" t="s">
         <v>55</v>
       </c>
@@ -11038,7 +11086,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" ht="13.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>619</v>
@@ -11062,7 +11110,7 @@
       <c r="R155" s="11"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="165">
+    <row r="156" spans="1:25" ht="156.6">
       <c r="A156" s="1" t="s">
         <v>55</v>
       </c>
@@ -11109,7 +11157,7 @@
       </c>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="102">
+    <row r="157" spans="1:25" ht="105.6">
       <c r="A157" s="1" t="s">
         <v>55</v>
       </c>
@@ -11164,7 +11212,7 @@
       </c>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" ht="13.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>634</v>
@@ -11182,7 +11230,7 @@
       <c r="L158" s="32"/>
       <c r="R158" s="11"/>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" ht="13.2">
       <c r="A159" s="1"/>
       <c r="B159" s="42" t="s">
         <v>635</v>
@@ -11200,7 +11248,7 @@
       <c r="L159" s="32"/>
       <c r="R159" s="11"/>
     </row>
-    <row r="160" spans="1:25" ht="152.25">
+    <row r="160" spans="1:25" ht="156.6">
       <c r="A160" s="1" t="s">
         <v>55</v>
       </c>
@@ -11260,7 +11308,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="165">
+    <row r="161" spans="1:25" ht="156.6">
       <c r="A161" s="1" t="s">
         <v>55</v>
       </c>
@@ -11311,7 +11359,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="153">
+    <row r="162" spans="1:25" ht="158.4">
       <c r="A162" s="1" t="s">
         <v>55</v>
       </c>
@@ -11365,7 +11413,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="165.75">
+    <row r="163" spans="1:25" ht="171.6">
       <c r="A163" s="1" t="s">
         <v>55</v>
       </c>
@@ -11417,7 +11465,7 @@
       </c>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" ht="13.2">
       <c r="A164" s="1" t="s">
         <v>55</v>
       </c>
@@ -11439,7 +11487,7 @@
       <c r="R164" s="11"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="38.25">
+    <row r="165" spans="1:25" ht="39.6">
       <c r="A165" s="1" t="s">
         <v>55</v>
       </c>
@@ -11471,7 +11519,7 @@
       <c r="R165" s="11"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="108">
+    <row r="166" spans="1:25" ht="91.8">
       <c r="A166" s="1" t="s">
         <v>55</v>
       </c>
@@ -11519,7 +11567,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" ht="13.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
         <v>671</v>
@@ -11537,7 +11585,7 @@
       <c r="L167" s="32"/>
       <c r="R167" s="11"/>
     </row>
-    <row r="168" spans="1:25" ht="100.5">
+    <row r="168" spans="1:25" ht="88.8">
       <c r="A168" s="1" t="s">
         <v>55</v>
       </c>
@@ -11596,7 +11644,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" ht="13.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
         <v>676</v>
@@ -11614,7 +11662,7 @@
       <c r="L169" s="32"/>
       <c r="R169" s="11"/>
     </row>
-    <row r="170" spans="1:25" ht="100.5">
+    <row r="170" spans="1:25" ht="88.8">
       <c r="A170" s="1" t="s">
         <v>55</v>
       </c>
@@ -11667,7 +11715,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" ht="13.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
         <v>686</v>
@@ -11685,7 +11733,7 @@
       <c r="L171" s="32"/>
       <c r="R171" s="11"/>
     </row>
-    <row r="172" spans="1:25" ht="144">
+    <row r="172" spans="1:25" ht="126">
       <c r="A172" s="1" t="s">
         <v>55</v>
       </c>
@@ -11733,7 +11781,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" ht="13.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>691</v>
@@ -11751,7 +11799,7 @@
       <c r="L173" s="1"/>
       <c r="R173" s="11"/>
     </row>
-    <row r="174" spans="1:25" ht="25.5">
+    <row r="174" spans="1:25" ht="26.4">
       <c r="A174" s="1" t="s">
         <v>26</v>
       </c>
@@ -11777,7 +11825,7 @@
       </c>
       <c r="R174" s="11"/>
     </row>
-    <row r="175" spans="1:25" ht="76.5">
+    <row r="175" spans="1:25" ht="66">
       <c r="A175" s="1" t="s">
         <v>55</v>
       </c>
@@ -11813,7 +11861,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="51">
+    <row r="176" spans="1:25" ht="52.8">
       <c r="A176" s="1" t="s">
         <v>55</v>
       </c>
@@ -11840,7 +11888,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="25.5">
+    <row r="177" spans="1:25" ht="26.4">
       <c r="A177" s="1" t="s">
         <v>55</v>
       </c>
@@ -11944,8 +11992,9 @@
     <hyperlink ref="H2" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId65"/>
-  <legacyDrawing r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId65"/>
+  <drawing r:id="rId66"/>
+  <legacyDrawing r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -11958,9 +12007,9 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" customWidth="1"/>
+    <col min="1" max="2" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1">
